--- a/Financial Modelling Prep Library/Company Financial Data/BBBY/annual/stock_price_data.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/BBBY/annual/stock_price_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>high</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>BBBY-FY-1992</t>
   </si>
   <si>
     <t>BBBY-FY-1993</t>
@@ -476,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,13 +503,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.375</v>
+        <v>4.4375</v>
       </c>
       <c r="C3">
-        <v>0.875</v>
+        <v>1.84375</v>
       </c>
       <c r="D3">
-        <v>1.579138554753484</v>
+        <v>3.168447394616048</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -520,13 +517,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.4375</v>
+        <v>4.125</v>
       </c>
       <c r="C4">
-        <v>1.84375</v>
+        <v>2.84375</v>
       </c>
       <c r="D4">
-        <v>3.168447394616048</v>
+        <v>3.476702030688997</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -534,13 +531,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>4.125</v>
+        <v>5.609375</v>
       </c>
       <c r="C5">
-        <v>2.84375</v>
+        <v>2.25</v>
       </c>
       <c r="D5">
-        <v>3.476702030688997</v>
+        <v>3.652528366704626</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -548,13 +545,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>5.609375</v>
+        <v>7.9375</v>
       </c>
       <c r="C6">
-        <v>2.25</v>
+        <v>4.5625</v>
       </c>
       <c r="D6">
-        <v>3.652528366704626</v>
+        <v>6.40431226707819</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -562,13 +559,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>7.9375</v>
+        <v>11.21875</v>
       </c>
       <c r="C7">
-        <v>4.5625</v>
+        <v>5.71875</v>
       </c>
       <c r="D7">
-        <v>6.40431226707819</v>
+        <v>8.08609312749004</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -576,13 +573,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>11.21875</v>
+        <v>17.59375</v>
       </c>
       <c r="C8">
-        <v>5.71875</v>
+        <v>8.5625</v>
       </c>
       <c r="D8">
-        <v>8.08609312749004</v>
+        <v>12.91726842629482</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -590,13 +587,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>17.59375</v>
+        <v>19.6875</v>
       </c>
       <c r="C9">
-        <v>8.5625</v>
+        <v>11.21875</v>
       </c>
       <c r="D9">
-        <v>12.91726842629482</v>
+        <v>16.56144593253968</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -604,13 +601,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>19.6875</v>
+        <v>27.8125</v>
       </c>
       <c r="C10">
-        <v>11.21875</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>16.56144593253968</v>
+        <v>20.48544311523438</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -618,13 +615,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>27.8125</v>
+        <v>36.52999877929688</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>18.70000076293945</v>
       </c>
       <c r="D11">
-        <v>20.48544311523438</v>
+        <v>29.64841860412103</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -632,13 +629,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>36.52999877929688</v>
+        <v>37.90000152587891</v>
       </c>
       <c r="C12">
-        <v>18.70000076293945</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="D12">
-        <v>29.64841860412103</v>
+        <v>33.84685255711772</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -646,13 +643,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>37.90000152587891</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>26.70000076293945</v>
+        <v>30.18000030517578</v>
       </c>
       <c r="D13">
-        <v>33.84685255711772</v>
+        <v>39.97366531341675</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -660,13 +657,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>44.43000030517578</v>
       </c>
       <c r="C14">
-        <v>30.18000030517578</v>
+        <v>33.88000106811523</v>
       </c>
       <c r="D14">
-        <v>39.97366531341675</v>
+        <v>38.5736255265802</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -674,13 +671,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>44.43000030517578</v>
+        <v>46.9900016784668</v>
       </c>
       <c r="C15">
-        <v>33.88000106811523</v>
+        <v>34.84999847412109</v>
       </c>
       <c r="D15">
-        <v>38.5736255265802</v>
+        <v>39.86733068033043</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -688,13 +685,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>46.9900016784668</v>
+        <v>43.31999969482422</v>
       </c>
       <c r="C16">
-        <v>34.84999847412109</v>
+        <v>30.92000007629395</v>
       </c>
       <c r="D16">
-        <v>39.86733068033043</v>
+        <v>37.71592151417452</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -702,13 +699,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>43.31999969482422</v>
+        <v>41.90000152587891</v>
       </c>
       <c r="C17">
-        <v>30.92000007629395</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="D17">
-        <v>37.71592151417452</v>
+        <v>34.80390451438873</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -716,13 +713,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>41.90000152587891</v>
+        <v>34.72999954223633</v>
       </c>
       <c r="C18">
-        <v>24.48999977111816</v>
+        <v>16.22999954223633</v>
       </c>
       <c r="D18">
-        <v>34.80390451438873</v>
+        <v>27.73147409750646</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -730,13 +727,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>34.72999954223633</v>
+        <v>43.41999816894531</v>
       </c>
       <c r="C19">
-        <v>16.22999954223633</v>
+        <v>19.11000061035156</v>
       </c>
       <c r="D19">
-        <v>27.73147409750646</v>
+        <v>33.8964542221738</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -744,13 +741,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>43.41999816894531</v>
+        <v>50.95000076293945</v>
       </c>
       <c r="C20">
-        <v>19.11000061035156</v>
+        <v>35.54999923706055</v>
       </c>
       <c r="D20">
-        <v>33.8964542221738</v>
+        <v>43.67452380770729</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -758,13 +755,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>50.95000076293945</v>
+        <v>63.83000183105469</v>
       </c>
       <c r="C21">
-        <v>35.54999923706055</v>
+        <v>44.79000091552734</v>
       </c>
       <c r="D21">
-        <v>43.67452380770729</v>
+        <v>56.74035867941807</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -772,13 +769,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>63.83000183105469</v>
+        <v>75.83999633789062</v>
       </c>
       <c r="C22">
-        <v>44.79000091552734</v>
+        <v>54.33000183105469</v>
       </c>
       <c r="D22">
-        <v>56.74035867941807</v>
+        <v>63.03629924744133</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -786,13 +783,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>75.83999633789062</v>
+        <v>80.81999969482422</v>
       </c>
       <c r="C23">
-        <v>54.33000183105469</v>
+        <v>56.36999893188477</v>
       </c>
       <c r="D23">
-        <v>63.03629924744133</v>
+        <v>71.5896811466293</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -800,13 +797,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>80.81999969482422</v>
+        <v>79.63999938964844</v>
       </c>
       <c r="C24">
-        <v>56.36999893188477</v>
+        <v>54.95999908447266</v>
       </c>
       <c r="D24">
-        <v>71.5896811466293</v>
+        <v>67.06290850696335</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -814,13 +811,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>79.63999938964844</v>
+        <v>78.09999847412109</v>
       </c>
       <c r="C25">
-        <v>54.95999908447266</v>
+        <v>41.2599983215332</v>
       </c>
       <c r="D25">
-        <v>67.06290850696335</v>
+        <v>61.78175302330716</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -828,13 +825,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>78.09999847412109</v>
+        <v>52.70999908447266</v>
       </c>
       <c r="C26">
-        <v>41.2599983215332</v>
+        <v>38.59999847412109</v>
       </c>
       <c r="D26">
-        <v>61.78175302330716</v>
+        <v>44.34358561846364</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -842,13 +839,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>52.70999908447266</v>
+        <v>41.95999908447266</v>
       </c>
       <c r="C27">
-        <v>38.59999847412109</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="D27">
-        <v>44.34358561846364</v>
+        <v>28.63933593034744</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -856,13 +853,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>41.95999908447266</v>
+        <v>23.28000068664551</v>
       </c>
       <c r="C28">
-        <v>19.06999969482422</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D28">
-        <v>28.63933593034744</v>
+        <v>16.91171994781494</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -870,13 +867,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>23.28000068664551</v>
+        <v>19.56999969482422</v>
       </c>
       <c r="C29">
-        <v>10.46000003814697</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="D29">
-        <v>16.91171994781494</v>
+        <v>13.25071713079019</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -884,13 +881,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>19.56999969482422</v>
+        <v>53.90000152587891</v>
       </c>
       <c r="C30">
-        <v>7.309999942779541</v>
+        <v>3.430000066757202</v>
       </c>
       <c r="D30">
-        <v>13.25071713079019</v>
+        <v>14.6444621713038</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -898,26 +895,12 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>53.90000152587891</v>
+        <v>44.5099983215332</v>
       </c>
       <c r="C31">
-        <v>3.430000066757202</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="D31">
-        <v>14.6444621713038</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>44.5099983215332</v>
-      </c>
-      <c r="C32">
-        <v>12.39000034332275</v>
-      </c>
-      <c r="D32">
         <v>23.21460317430042</v>
       </c>
     </row>

--- a/Financial Modelling Prep Library/Company Financial Data/BBBY/annual/stock_price_data.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/BBBY/annual/stock_price_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>high</t>
   </si>
@@ -26,75 +26,6 @@
   </si>
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>BBBY-FY-1993</t>
-  </si>
-  <si>
-    <t>BBBY-FY-1994</t>
-  </si>
-  <si>
-    <t>BBBY-FY-1995</t>
-  </si>
-  <si>
-    <t>BBBY-FY-1996</t>
-  </si>
-  <si>
-    <t>BBBY-FY-1997</t>
-  </si>
-  <si>
-    <t>BBBY-FY-1998</t>
-  </si>
-  <si>
-    <t>BBBY-FY-1999</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2000</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2001</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2002</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2003</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2004</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2005</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2006</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2007</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2008</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2009</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2010</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2011</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2012</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2013</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2014</t>
-  </si>
-  <si>
-    <t>BBBY-FY-2015</t>
   </si>
   <si>
     <t>BBBY-FY-2016</t>
@@ -473,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,19 +428,28 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>78.09999847412109</v>
+      </c>
+      <c r="C2">
+        <v>41.2599983215332</v>
+      </c>
+      <c r="D2">
+        <v>61.83285719250876</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>4.4375</v>
+        <v>52.70999908447266</v>
       </c>
       <c r="C3">
-        <v>1.84375</v>
+        <v>38.59999847412109</v>
       </c>
       <c r="D3">
-        <v>3.168447394616048</v>
+        <v>44.34358561846364</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -517,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.125</v>
+        <v>41.95999908447266</v>
       </c>
       <c r="C4">
-        <v>2.84375</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="D4">
-        <v>3.476702030688997</v>
+        <v>28.63933593034744</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -531,13 +471,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5.609375</v>
+        <v>23.28000068664551</v>
       </c>
       <c r="C5">
-        <v>2.25</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D5">
-        <v>3.652528366704626</v>
+        <v>16.91171994781494</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -545,13 +485,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>7.9375</v>
+        <v>19.56999969482422</v>
       </c>
       <c r="C6">
-        <v>4.5625</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="D6">
-        <v>6.40431226707819</v>
+        <v>13.25071713079019</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -559,13 +499,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>11.21875</v>
+        <v>53.90000152587891</v>
       </c>
       <c r="C7">
-        <v>5.71875</v>
+        <v>3.430000066757202</v>
       </c>
       <c r="D7">
-        <v>8.08609312749004</v>
+        <v>14.6444621713038</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -573,334 +513,12 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>17.59375</v>
+        <v>44.5099983215332</v>
       </c>
       <c r="C8">
-        <v>8.5625</v>
+        <v>12.39000034332275</v>
       </c>
       <c r="D8">
-        <v>12.91726842629482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>19.6875</v>
-      </c>
-      <c r="C9">
-        <v>11.21875</v>
-      </c>
-      <c r="D9">
-        <v>16.56144593253968</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>27.8125</v>
-      </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>20.48544311523438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>36.52999877929688</v>
-      </c>
-      <c r="C11">
-        <v>18.70000076293945</v>
-      </c>
-      <c r="D11">
-        <v>29.64841860412103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>37.90000152587891</v>
-      </c>
-      <c r="C12">
-        <v>26.70000076293945</v>
-      </c>
-      <c r="D12">
-        <v>33.84685255711772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>45</v>
-      </c>
-      <c r="C13">
-        <v>30.18000030517578</v>
-      </c>
-      <c r="D13">
-        <v>39.97366531341675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>44.43000030517578</v>
-      </c>
-      <c r="C14">
-        <v>33.88000106811523</v>
-      </c>
-      <c r="D14">
-        <v>38.5736255265802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>46.9900016784668</v>
-      </c>
-      <c r="C15">
-        <v>34.84999847412109</v>
-      </c>
-      <c r="D15">
-        <v>39.86733068033043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>43.31999969482422</v>
-      </c>
-      <c r="C16">
-        <v>30.92000007629395</v>
-      </c>
-      <c r="D16">
-        <v>37.71592151417452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>41.90000152587891</v>
-      </c>
-      <c r="C17">
-        <v>24.48999977111816</v>
-      </c>
-      <c r="D17">
-        <v>34.80390451438873</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>34.72999954223633</v>
-      </c>
-      <c r="C18">
-        <v>16.22999954223633</v>
-      </c>
-      <c r="D18">
-        <v>27.73147409750646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>43.41999816894531</v>
-      </c>
-      <c r="C19">
-        <v>19.11000061035156</v>
-      </c>
-      <c r="D19">
-        <v>33.8964542221738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>50.95000076293945</v>
-      </c>
-      <c r="C20">
-        <v>35.54999923706055</v>
-      </c>
-      <c r="D20">
-        <v>43.67452380770729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>63.83000183105469</v>
-      </c>
-      <c r="C21">
-        <v>44.79000091552734</v>
-      </c>
-      <c r="D21">
-        <v>56.74035867941807</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>75.83999633789062</v>
-      </c>
-      <c r="C22">
-        <v>54.33000183105469</v>
-      </c>
-      <c r="D22">
-        <v>63.03629924744133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>80.81999969482422</v>
-      </c>
-      <c r="C23">
-        <v>56.36999893188477</v>
-      </c>
-      <c r="D23">
-        <v>71.5896811466293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>79.63999938964844</v>
-      </c>
-      <c r="C24">
-        <v>54.95999908447266</v>
-      </c>
-      <c r="D24">
-        <v>67.06290850696335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>78.09999847412109</v>
-      </c>
-      <c r="C25">
-        <v>41.2599983215332</v>
-      </c>
-      <c r="D25">
-        <v>61.78175302330716</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>52.70999908447266</v>
-      </c>
-      <c r="C26">
-        <v>38.59999847412109</v>
-      </c>
-      <c r="D26">
-        <v>44.34358561846364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>41.95999908447266</v>
-      </c>
-      <c r="C27">
-        <v>19.06999969482422</v>
-      </c>
-      <c r="D27">
-        <v>28.63933593034744</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>23.28000068664551</v>
-      </c>
-      <c r="C28">
-        <v>10.46000003814697</v>
-      </c>
-      <c r="D28">
-        <v>16.91171994781494</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>19.56999969482422</v>
-      </c>
-      <c r="C29">
-        <v>7.309999942779541</v>
-      </c>
-      <c r="D29">
-        <v>13.25071713079019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>53.90000152587891</v>
-      </c>
-      <c r="C30">
-        <v>3.430000066757202</v>
-      </c>
-      <c r="D30">
-        <v>14.6444621713038</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>44.5099983215332</v>
-      </c>
-      <c r="C31">
-        <v>12.39000034332275</v>
-      </c>
-      <c r="D31">
         <v>23.21460317430042</v>
       </c>
     </row>
